--- a/zositech.com/output/zositech.com_products.xlsx
+++ b/zositech.com/output/zositech.com_products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>商品ID</t>
   </si>
@@ -127,8 +127,7 @@
     <t>最多250字符(同一商品的子款式标题与商品标题需一致，且中间请勿插入其他商品)</t>
   </si>
   <si>
-    <t>"1.多款式商品：同一个商品的首行标题填入「M」（商品主体)；同一个商品的非首行标题填入「P」(子款式)；
-2.单一款式商品（Single）：填入「S」"</t>
+    <t>"1.多款式商品：同一个商品的首行标题填入「M」（商品主体)；同一个商品的非首行标题填入「P」(子款式)；&amp;#10;2.单一款式商品（Single）：填入「S」"</t>
   </si>
   <si>
     <t>最多60字符</t>
@@ -155,27 +154,19 @@
     <t>多个关键词请用「英文逗号」隔开</t>
   </si>
   <si>
-    <t>「Y」:上架状态
-「N」:下架状态
-默认为「N」</t>
-  </si>
-  <si>
-    <t>「Y」:需要
-「N」:不需要 
-默认为「N」</t>
+    <t>「Y」:上架状态&amp;#10;「N」:下架状态&amp;#10;默认为「N」</t>
+  </si>
+  <si>
+    <t>「Y」:需要&amp;#10;「N」:不需要 &amp;#10;默认为「N」</t>
   </si>
   <si>
     <t>最多输入六位数的自然数</t>
   </si>
   <si>
-    <t>「Y」:跟踪
-「N」:不跟踪
-默认为「N」</t>
-  </si>
-  <si>
-    <t>「1」库存为0时不允许购买
-「2」库存为0时允许购买
-「3」库存为0时自动下架</t>
+    <t>「Y」:跟踪&amp;#10;「N」:不跟踪&amp;#10;默认为「N」</t>
+  </si>
+  <si>
+    <t>「1」库存为0时不允许购买&amp;#10;「2」库存为0时允许购买&amp;#10;「3」库存为0时自动下架</t>
   </si>
   <si>
     <t>请填入已创建的手动专辑名称；多个专辑请用「英文逗号」隔开</t>
@@ -202,9 +193,52 @@
     <t>最多512字符</t>
   </si>
   <si>
-    <t>1.商品属性为M(商品主体)与S(单一款式商品)的行都必须至少填入一个图片URL，支持填多个URL并用「英文逗号」隔开，默认填入的首个URL为商品主图URL
-2.商品属性为P(子款式)的行仅支持一个URL，填入多个时默认导入第一个，若不填入，则默认不需要图片
-3.同一商品的部分子款式上传图片，则其余款式也需要上传，否则默认填入商品主图</t>
+    <t>1.商品属性为M(商品主体)与S(单一款式商品)的行都必须至少填入一个图片URL，支持填多个URL并用「英文逗号」隔开，默认填入的首个URL为商品主图URL&amp;#10;2.商品属性为P(子款式)的行仅支持一个URL，填入多个时默认导入第一个，若不填入，则默认不需要图片&amp;#10;3.同一商品的部分子款式上传图片，则其余款式也需要上传，否则默认填入商品主图</t>
+  </si>
+  <si>
+    <t>C186A 4K / 5MP WiFi-6 Security Camera System + Full-Color Night Vision</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>https://www.zositech.com/cdn/shop/files/C186A_WIFI_6_camera_system_large.png?v=1747188537</t>
+  </si>
+  <si>
+    <t>C289 3MP Pan-Tilt Security Camera System + 500G Hard Drive</t>
+  </si>
+  <si>
+    <t>https://www.zositech.com/cdn/shop/files/C2891_large.jpg?v=1757390253</t>
+  </si>
+  <si>
+    <t>C302 3MP 8 Channel WiFi-6 Security Camera System + Up To 2TB HDD Local Storage</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>64GB SD Card</t>
+  </si>
+  <si>
+    <t>https://www.zositech.com/cdn/shop/files/88P2-3023W8-US_large.png?v=1753696085</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>1TB</t>
+  </si>
+  <si>
+    <t>2TB</t>
+  </si>
+  <si>
+    <t>C280 5MP 8CH Wi-Fi6 2-Cam System + 64GB Card</t>
+  </si>
+  <si>
+    <t>https://www.zositech.com/cdn/shop/files/1600x2000-1-_-2cam-64G_large.jpg?v=1755766737</t>
   </si>
 </sst>
 </file>
@@ -212,12 +246,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +261,32 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -238,10 +296,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,130 +416,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,25 +426,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,25 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,127 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,26 +632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,8 +665,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,21 +678,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,18 +705,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,145 +747,170 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -887,7 +964,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -897,7 +974,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -931,15 +1008,15 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1018,131 +1095,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1153,256 +1257,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AH2"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:BS13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="89.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="43.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="91.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="168.111111111111" customWidth="1"/>
-    <col min="5" max="5" width="13.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="14.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="50.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.6666666666667" customWidth="1"/>
-    <col min="9" max="10" width="14.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="13.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="155.666666666667" customWidth="1"/>
-    <col min="13" max="13" width="38.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="49.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="43.1111111111111" customWidth="1"/>
-    <col min="16" max="16" width="13.1111111111111" customWidth="1"/>
-    <col min="17" max="17" width="28.1111111111111" customWidth="1"/>
-    <col min="18" max="18" width="41.8888888888889" customWidth="1"/>
-    <col min="19" max="19" width="85.6666666666667" customWidth="1"/>
-    <col min="20" max="20" width="70.6666666666667" customWidth="1"/>
-    <col min="21" max="21" width="85.6666666666667" customWidth="1"/>
-    <col min="22" max="22" width="14.4444444444444" customWidth="1"/>
-    <col min="23" max="25" width="13.1111111111111" customWidth="1"/>
-    <col min="26" max="27" width="33.1111111111111" customWidth="1"/>
-    <col min="28" max="28" width="14.4444444444444" customWidth="1"/>
-    <col min="29" max="29" width="33.1111111111111" customWidth="1"/>
-    <col min="30" max="30" width="13.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="19.4444444444444" customWidth="1"/>
-    <col min="32" max="33" width="14.4444444444444" customWidth="1"/>
-    <col min="34" max="34" width="255.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="89.4351851851852" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.1481481481481" style="3" customWidth="1"/>
+    <col min="3" max="3" width="91.8611111111111" style="3" customWidth="1"/>
+    <col min="4" max="4" width="168.148148148148" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.4444444444444" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.4351851851852" style="3" customWidth="1"/>
+    <col min="7" max="7" width="50.7222222222222" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.7222222222222" style="3" customWidth="1"/>
+    <col min="9" max="10" width="14.4351851851852" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.1481481481481" style="3" customWidth="1"/>
+    <col min="12" max="12" width="155.722222222222" style="3" customWidth="1"/>
+    <col min="13" max="13" width="38.1481481481481" style="3" customWidth="1"/>
+    <col min="14" max="14" width="49.4351851851852" style="3" customWidth="1"/>
+    <col min="15" max="15" width="43.1481481481481" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.1481481481481" style="3" customWidth="1"/>
+    <col min="17" max="17" width="28.1481481481481" style="3" customWidth="1"/>
+    <col min="18" max="18" width="41.8611111111111" style="3" customWidth="1"/>
+    <col min="19" max="19" width="85.7222222222222" style="3" customWidth="1"/>
+    <col min="20" max="20" width="70.7222222222222" style="3" customWidth="1"/>
+    <col min="21" max="21" width="85.7222222222222" style="3" customWidth="1"/>
+    <col min="22" max="22" width="14.4351851851852" style="3" customWidth="1"/>
+    <col min="23" max="25" width="13.1481481481481" style="3" customWidth="1"/>
+    <col min="26" max="27" width="33.1481481481481" style="3" customWidth="1"/>
+    <col min="28" max="28" width="14.4351851851852" style="3" customWidth="1"/>
+    <col min="29" max="29" width="33.1481481481481" style="3" customWidth="1"/>
+    <col min="30" max="30" width="13.1481481481481" style="3" customWidth="1"/>
+    <col min="31" max="31" width="19.4351851851852" style="3" customWidth="1"/>
+    <col min="32" max="33" width="14.4351851851852" style="3" customWidth="1"/>
+    <col min="34" max="34" width="255.722222222222" style="3" customWidth="1"/>
+    <col min="35" max="71" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.2" spans="1:34">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:71">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="12"/>
+      <c r="BM1" s="12"/>
+      <c r="BN1" s="12"/>
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="12"/>
+      <c r="BQ1" s="12"/>
+      <c r="BR1" s="12"/>
+      <c r="BS1" s="12"/>
     </row>
-    <row r="2" ht="15.6" spans="1:34">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="47.25" customHeight="1" spans="1:34">
+      <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="8" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="15.6" spans="1:71">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="11">
+        <v>2</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="2">
+        <v>279.99</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>599.99</v>
+      </c>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:71">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="2">
+        <v>179.99</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>289.99</v>
+      </c>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:71">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="11">
+        <v>2</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="2">
+        <v>139.99</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>209.99</v>
+      </c>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+    </row>
+    <row r="6" spans="3:34">
+      <c r="C6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="11">
+        <v>2</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>179.99</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>299.99</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="3:34">
+      <c r="C7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="11">
+        <v>2</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>207.99</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>419.99</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="3:34">
+      <c r="C8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>79.99</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>144.99</v>
+      </c>
+      <c r="AH8" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="14:14">
+      <c r="N9" s="9"/>
+    </row>
+    <row r="13" spans="28:28">
+      <c r="AB13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="AH3" r:id="rId1" display="https://www.zositech.com/cdn/shop/files/C186A_WIFI_6_camera_system_large.png?v=1747188537"/>
+    <hyperlink ref="AH4" r:id="rId2" display="https://www.zositech.com/cdn/shop/files/C2891_large.jpg?v=1757390253"/>
+    <hyperlink ref="AH5" r:id="rId3" display="https://www.zositech.com/cdn/shop/files/88P2-3023W8-US_large.png?v=1753696085"/>
+    <hyperlink ref="AH6" r:id="rId3" display="https://www.zositech.com/cdn/shop/files/88P2-3023W8-US_large.png?v=1753696085"/>
+    <hyperlink ref="AH7" r:id="rId3" display="https://www.zositech.com/cdn/shop/files/88P2-3023W8-US_large.png?v=1753696085"/>
+    <hyperlink ref="AH8" r:id="rId4" display="https://www.zositech.com/cdn/shop/files/1600x2000-1-_-2cam-64G_large.jpg?v=1755766737"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>